--- a/Mifos Automation Excels/Client/3008-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3008-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +208,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -295,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -334,9 +326,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,7 +655,7 @@
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>42036</v>
       </c>
     </row>
@@ -677,10 +666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,9 +780,6 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,31 +1553,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1602,7 +1588,7 @@
       <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
@@ -1628,7 +1614,7 @@
       <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
@@ -1656,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3008-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3008-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -789,10 +789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,12 +810,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -855,17 +856,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9">
@@ -890,9 +892,10 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -930,14 +933,15 @@
       <c r="M3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -973,14 +977,15 @@
       <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1016,14 +1021,15 @@
       <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1059,14 +1065,15 @@
       <c r="M6" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1102,14 +1109,15 @@
       <c r="M7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1145,14 +1153,15 @@
       <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1188,14 +1197,15 @@
       <c r="M9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1231,14 +1241,15 @@
       <c r="M10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1274,14 +1285,15 @@
       <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1317,14 +1329,15 @@
       <c r="M12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1360,14 +1373,15 @@
       <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1403,10 +1417,11 @@
       <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
         <v>1003.49</v>
       </c>
     </row>
